--- a/Proyectos/Activos/inter_Cabina/1. Requerimientos/inter_Cabina_Verificacion CU.xlsx
+++ b/Proyectos/Activos/inter_Cabina/1. Requerimientos/inter_Cabina_Verificacion CU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\IWM\CMMI3\Cabina press\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\IWM\Repositorio IWM\Proyectos\Activos\inter_Cabina\1. Requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -345,7 +345,7 @@
     <t>Plantilla "PTLL_Verificacion CU"</t>
   </si>
   <si>
-    <t>Aprobado</t>
+    <t>Rechazado</t>
   </si>
 </sst>
 </file>
@@ -593,38 +593,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,6 +613,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,6 +625,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15218,7 +15218,7 @@
   <dimension ref="B2:I299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G13" sqref="G13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15232,154 +15232,154 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="38">
+      <c r="F5" s="30"/>
+      <c r="G5" s="32">
         <v>42192</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="37" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="33"/>
+      <c r="E10" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26"/>
       <c r="G10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="33"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="39">
+      <c r="E11" s="33">
         <f>SUM(G16:G400)</f>
         <v>17</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="9">
         <f>(SUM(H17:H400)*1)/E11</f>
         <v>0.88235294117647056</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="34">
         <f>(SUM(I16:I400)*1)/E11</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="I11" s="40"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="15" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
         <v>3</v>
@@ -15398,10 +15398,10 @@
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
@@ -15418,10 +15418,10 @@
       <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
@@ -15438,10 +15438,10 @@
       <c r="B19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="7"/>
       <c r="F19" s="10" t="s">
         <v>52</v>
@@ -15460,10 +15460,10 @@
       <c r="B20" s="3">
         <v>4</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -15480,10 +15480,10 @@
       <c r="B21" s="3">
         <v>5</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -15500,10 +15500,10 @@
       <c r="B22" s="3">
         <v>6</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -15520,11 +15520,11 @@
       <c r="B23" s="3">
         <v>7</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
         <v>0</v>
@@ -15537,10 +15537,10 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="20">
+      <c r="B24" s="18">
         <v>7.1</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="14" t="s">
         <v>14</v>
       </c>
@@ -15557,10 +15557,10 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="20">
+      <c r="B25" s="18">
         <v>7.2</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="2" t="s">
         <v>13</v>
       </c>
@@ -15577,10 +15577,10 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="20">
+      <c r="B26" s="18">
         <v>7.3</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
@@ -15600,11 +15600,11 @@
       <c r="B27" s="3">
         <v>8</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="2"/>
       <c r="G27" s="1">
         <v>0</v>
@@ -15617,10 +15617,10 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="20">
+      <c r="B28" s="18">
         <v>8.1</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="2" t="s">
         <v>10</v>
       </c>
@@ -15637,10 +15637,10 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="20">
+      <c r="B29" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
@@ -15660,11 +15660,11 @@
       <c r="B30" s="3">
         <v>9</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="2"/>
       <c r="G30" s="1">
         <v>0</v>
@@ -15677,10 +15677,10 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="20">
+      <c r="B31" s="18">
         <v>9.1</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="2" t="s">
         <v>46</v>
       </c>
@@ -15697,10 +15697,10 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="20">
+      <c r="B32" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="2" t="s">
         <v>7</v>
       </c>
@@ -15717,10 +15717,10 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="20">
+      <c r="B33" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
@@ -15740,10 +15740,10 @@
       <c r="B35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="21"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
         <v>3</v>
@@ -15762,10 +15762,10 @@
       <c r="B36" s="3">
         <v>1</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="31"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="1">
@@ -15782,10 +15782,10 @@
       <c r="B37" s="3">
         <v>2</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="31"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="1">
@@ -15802,10 +15802,10 @@
       <c r="B38" s="3">
         <v>3</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="20"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="11"/>
       <c r="F38" s="10" t="s">
         <v>51</v>
@@ -15824,10 +15824,10 @@
       <c r="B39" s="3">
         <v>4</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="20"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="1">
@@ -15844,10 +15844,10 @@
       <c r="B40" s="3">
         <v>5</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="20"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="1">
@@ -15864,10 +15864,10 @@
       <c r="B41" s="3">
         <v>6</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="20"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="1">
@@ -15884,11 +15884,11 @@
       <c r="B42" s="3">
         <v>7</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
       <c r="F42" s="11"/>
       <c r="G42" s="1">
         <v>0</v>
@@ -15901,10 +15901,10 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="20">
+      <c r="B43" s="18">
         <v>7.1</v>
       </c>
-      <c r="C43" s="20"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="11" t="s">
         <v>14</v>
       </c>
@@ -15921,10 +15921,10 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="20">
+      <c r="B44" s="18">
         <v>7.2</v>
       </c>
-      <c r="C44" s="20"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="11" t="s">
         <v>13</v>
       </c>
@@ -15941,10 +15941,10 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="20">
+      <c r="B45" s="18">
         <v>7.3</v>
       </c>
-      <c r="C45" s="20"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="11" t="s">
         <v>12</v>
       </c>
@@ -15964,11 +15964,11 @@
       <c r="B46" s="3">
         <v>8</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="11"/>
       <c r="G46" s="1">
         <v>0</v>
@@ -15981,10 +15981,10 @@
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="20">
+      <c r="B47" s="18">
         <v>8.1</v>
       </c>
-      <c r="C47" s="20"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="11" t="s">
         <v>10</v>
       </c>
@@ -16001,10 +16001,10 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="20">
+      <c r="B48" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C48" s="20"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="11" t="s">
         <v>9</v>
       </c>
@@ -16024,11 +16024,11 @@
       <c r="B49" s="3">
         <v>9</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="11"/>
       <c r="G49" s="1">
         <v>0</v>
@@ -16041,10 +16041,10 @@
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="20">
+      <c r="B50" s="18">
         <v>9.1</v>
       </c>
-      <c r="C50" s="20"/>
+      <c r="C50" s="18"/>
       <c r="D50" s="13" t="s">
         <v>46</v>
       </c>
@@ -16061,10 +16061,10 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="20">
+      <c r="B51" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C51" s="20"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="11" t="s">
         <v>7</v>
       </c>
@@ -16081,10 +16081,10 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="20">
+      <c r="B52" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C52" s="20"/>
+      <c r="C52" s="18"/>
       <c r="D52" s="11" t="s">
         <v>6</v>
       </c>
@@ -16104,10 +16104,10 @@
       <c r="B54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="21"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="12"/>
       <c r="F54" s="4" t="s">
         <v>3</v>
@@ -16126,10 +16126,10 @@
       <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="31"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="1">
@@ -16146,10 +16146,10 @@
       <c r="B56" s="3">
         <v>2</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="31"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="1">
@@ -16166,10 +16166,10 @@
       <c r="B57" s="3">
         <v>3</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="20"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="11"/>
       <c r="F57" s="10" t="s">
         <v>50</v>
@@ -16188,10 +16188,10 @@
       <c r="B58" s="3">
         <v>4</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="20"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="1">
@@ -16208,10 +16208,10 @@
       <c r="B59" s="3">
         <v>5</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="20"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="1">
@@ -16228,10 +16228,10 @@
       <c r="B60" s="3">
         <v>6</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="20"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="1">
@@ -16248,11 +16248,11 @@
       <c r="B61" s="3">
         <v>7</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="27"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
       <c r="F61" s="11"/>
       <c r="G61" s="1">
         <v>0</v>
@@ -16265,10 +16265,10 @@
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="20">
+      <c r="B62" s="18">
         <v>7.1</v>
       </c>
-      <c r="C62" s="20"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="11" t="s">
         <v>14</v>
       </c>
@@ -16285,10 +16285,10 @@
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="20">
+      <c r="B63" s="18">
         <v>7.2</v>
       </c>
-      <c r="C63" s="20"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="11" t="s">
         <v>13</v>
       </c>
@@ -16305,10 +16305,10 @@
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="20">
+      <c r="B64" s="18">
         <v>7.3</v>
       </c>
-      <c r="C64" s="20"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="11" t="s">
         <v>12</v>
       </c>
@@ -16328,11 +16328,11 @@
       <c r="B65" s="3">
         <v>8</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="30"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
       <c r="F65" s="11"/>
       <c r="G65" s="1">
         <v>0</v>
@@ -16345,10 +16345,10 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="20">
+      <c r="B66" s="18">
         <v>8.1</v>
       </c>
-      <c r="C66" s="20"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="11" t="s">
         <v>10</v>
       </c>
@@ -16365,10 +16365,10 @@
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="20">
+      <c r="B67" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C67" s="20"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="11" t="s">
         <v>9</v>
       </c>
@@ -16388,11 +16388,11 @@
       <c r="B68" s="3">
         <v>9</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="30"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="17"/>
       <c r="F68" s="11"/>
       <c r="G68" s="1">
         <v>0</v>
@@ -16405,10 +16405,10 @@
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="20">
+      <c r="B69" s="18">
         <v>9.1</v>
       </c>
-      <c r="C69" s="20"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="13" t="s">
         <v>46</v>
       </c>
@@ -16425,10 +16425,10 @@
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="20">
+      <c r="B70" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C70" s="20"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="11" t="s">
         <v>7</v>
       </c>
@@ -16445,10 +16445,10 @@
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="20">
+      <c r="B71" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C71" s="20"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="11" t="s">
         <v>6</v>
       </c>
@@ -16468,10 +16468,10 @@
       <c r="B73" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="21"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="12"/>
       <c r="F73" s="4" t="s">
         <v>3</v>
@@ -16490,10 +16490,10 @@
       <c r="B74" s="3">
         <v>1</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="31"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="1">
@@ -16510,10 +16510,10 @@
       <c r="B75" s="3">
         <v>2</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="31"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="1">
@@ -16530,10 +16530,10 @@
       <c r="B76" s="3">
         <v>3</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="20"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="11"/>
       <c r="F76" s="10" t="s">
         <v>50</v>
@@ -16552,10 +16552,10 @@
       <c r="B77" s="3">
         <v>4</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="20"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="1">
@@ -16572,10 +16572,10 @@
       <c r="B78" s="3">
         <v>5</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="20"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="1">
@@ -16592,10 +16592,10 @@
       <c r="B79" s="3">
         <v>6</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="20"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="1">
@@ -16612,11 +16612,11 @@
       <c r="B80" s="3">
         <v>7</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="27"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="21"/>
       <c r="F80" s="11"/>
       <c r="G80" s="1">
         <v>0</v>
@@ -16629,10 +16629,10 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B81" s="20">
+      <c r="B81" s="18">
         <v>7.1</v>
       </c>
-      <c r="C81" s="20"/>
+      <c r="C81" s="18"/>
       <c r="D81" s="11" t="s">
         <v>14</v>
       </c>
@@ -16649,10 +16649,10 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B82" s="20">
+      <c r="B82" s="18">
         <v>7.2</v>
       </c>
-      <c r="C82" s="20"/>
+      <c r="C82" s="18"/>
       <c r="D82" s="11" t="s">
         <v>13</v>
       </c>
@@ -16669,10 +16669,10 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="20">
+      <c r="B83" s="18">
         <v>7.3</v>
       </c>
-      <c r="C83" s="20"/>
+      <c r="C83" s="18"/>
       <c r="D83" s="11" t="s">
         <v>12</v>
       </c>
@@ -16692,11 +16692,11 @@
       <c r="B84" s="3">
         <v>8</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="29"/>
-      <c r="E84" s="30"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="17"/>
       <c r="F84" s="11"/>
       <c r="G84" s="1">
         <v>0</v>
@@ -16709,10 +16709,10 @@
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="20">
+      <c r="B85" s="18">
         <v>8.1</v>
       </c>
-      <c r="C85" s="20"/>
+      <c r="C85" s="18"/>
       <c r="D85" s="11" t="s">
         <v>10</v>
       </c>
@@ -16729,10 +16729,10 @@
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="20">
+      <c r="B86" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C86" s="20"/>
+      <c r="C86" s="18"/>
       <c r="D86" s="11" t="s">
         <v>9</v>
       </c>
@@ -16752,11 +16752,11 @@
       <c r="B87" s="3">
         <v>9</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="29"/>
-      <c r="E87" s="30"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="17"/>
       <c r="F87" s="11"/>
       <c r="G87" s="1">
         <v>0</v>
@@ -16769,10 +16769,10 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="20">
+      <c r="B88" s="18">
         <v>9.1</v>
       </c>
-      <c r="C88" s="20"/>
+      <c r="C88" s="18"/>
       <c r="D88" s="13" t="s">
         <v>46</v>
       </c>
@@ -16789,10 +16789,10 @@
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="20">
+      <c r="B89" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C89" s="20"/>
+      <c r="C89" s="18"/>
       <c r="D89" s="11" t="s">
         <v>7</v>
       </c>
@@ -16809,10 +16809,10 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="20">
+      <c r="B90" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C90" s="20"/>
+      <c r="C90" s="18"/>
       <c r="D90" s="11" t="s">
         <v>6</v>
       </c>
@@ -16832,10 +16832,10 @@
       <c r="B92" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D92" s="21"/>
+      <c r="D92" s="22"/>
       <c r="E92" s="12"/>
       <c r="F92" s="4" t="s">
         <v>3</v>
@@ -16854,10 +16854,10 @@
       <c r="B93" s="3">
         <v>1</v>
       </c>
-      <c r="C93" s="31" t="s">
+      <c r="C93" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="31"/>
+      <c r="D93" s="23"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="1">
@@ -16874,10 +16874,10 @@
       <c r="B94" s="3">
         <v>2</v>
       </c>
-      <c r="C94" s="31" t="s">
+      <c r="C94" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D94" s="31"/>
+      <c r="D94" s="23"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="1">
@@ -16894,10 +16894,10 @@
       <c r="B95" s="3">
         <v>3</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D95" s="20"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="11"/>
       <c r="F95" s="10" t="s">
         <v>48</v>
@@ -16916,10 +16916,10 @@
       <c r="B96" s="3">
         <v>4</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D96" s="20"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="1">
@@ -16936,10 +16936,10 @@
       <c r="B97" s="3">
         <v>5</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D97" s="20"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="1">
@@ -16956,10 +16956,10 @@
       <c r="B98" s="3">
         <v>6</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D98" s="20"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="1">
@@ -16976,11 +16976,11 @@
       <c r="B99" s="3">
         <v>7</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D99" s="26"/>
-      <c r="E99" s="27"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="21"/>
       <c r="F99" s="11"/>
       <c r="G99" s="1">
         <v>0</v>
@@ -16993,10 +16993,10 @@
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="20">
+      <c r="B100" s="18">
         <v>7.1</v>
       </c>
-      <c r="C100" s="20"/>
+      <c r="C100" s="18"/>
       <c r="D100" s="11" t="s">
         <v>14</v>
       </c>
@@ -17015,10 +17015,10 @@
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="20">
+      <c r="B101" s="18">
         <v>7.2</v>
       </c>
-      <c r="C101" s="20"/>
+      <c r="C101" s="18"/>
       <c r="D101" s="11" t="s">
         <v>13</v>
       </c>
@@ -17035,10 +17035,10 @@
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="20">
+      <c r="B102" s="18">
         <v>7.3</v>
       </c>
-      <c r="C102" s="20"/>
+      <c r="C102" s="18"/>
       <c r="D102" s="11" t="s">
         <v>12</v>
       </c>
@@ -17058,11 +17058,11 @@
       <c r="B103" s="3">
         <v>8</v>
       </c>
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="29"/>
-      <c r="E103" s="30"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="17"/>
       <c r="F103" s="11"/>
       <c r="G103" s="1">
         <v>0</v>
@@ -17075,10 +17075,10 @@
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="20">
+      <c r="B104" s="18">
         <v>8.1</v>
       </c>
-      <c r="C104" s="20"/>
+      <c r="C104" s="18"/>
       <c r="D104" s="11" t="s">
         <v>10</v>
       </c>
@@ -17095,10 +17095,10 @@
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="20">
+      <c r="B105" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C105" s="20"/>
+      <c r="C105" s="18"/>
       <c r="D105" s="11" t="s">
         <v>9</v>
       </c>
@@ -17118,11 +17118,11 @@
       <c r="B106" s="3">
         <v>9</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="29"/>
-      <c r="E106" s="30"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="17"/>
       <c r="F106" s="11"/>
       <c r="G106" s="1">
         <v>0</v>
@@ -17135,10 +17135,10 @@
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="20">
+      <c r="B107" s="18">
         <v>9.1</v>
       </c>
-      <c r="C107" s="20"/>
+      <c r="C107" s="18"/>
       <c r="D107" s="13" t="s">
         <v>46</v>
       </c>
@@ -17155,10 +17155,10 @@
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="20">
+      <c r="B108" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C108" s="20"/>
+      <c r="C108" s="18"/>
       <c r="D108" s="11" t="s">
         <v>7</v>
       </c>
@@ -17175,10 +17175,10 @@
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="20">
+      <c r="B109" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C109" s="20"/>
+      <c r="C109" s="18"/>
       <c r="D109" s="11" t="s">
         <v>6</v>
       </c>
@@ -17198,10 +17198,10 @@
       <c r="B111" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D111" s="21"/>
+      <c r="D111" s="22"/>
       <c r="E111" s="12"/>
       <c r="F111" s="4" t="s">
         <v>3</v>
@@ -17220,10 +17220,10 @@
       <c r="B112" s="3">
         <v>1</v>
       </c>
-      <c r="C112" s="31" t="s">
+      <c r="C112" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="31"/>
+      <c r="D112" s="23"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" s="1">
@@ -17240,10 +17240,10 @@
       <c r="B113" s="3">
         <v>2</v>
       </c>
-      <c r="C113" s="31" t="s">
+      <c r="C113" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D113" s="31"/>
+      <c r="D113" s="23"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" s="1">
@@ -17260,10 +17260,10 @@
       <c r="B114" s="3">
         <v>3</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D114" s="20"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="11"/>
       <c r="F114" s="10" t="s">
         <v>49</v>
@@ -17282,10 +17282,10 @@
       <c r="B115" s="3">
         <v>4</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="20"/>
+      <c r="D115" s="18"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" s="1">
@@ -17302,10 +17302,10 @@
       <c r="B116" s="3">
         <v>5</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D116" s="20"/>
+      <c r="D116" s="18"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" s="1">
@@ -17322,10 +17322,10 @@
       <c r="B117" s="3">
         <v>6</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="20"/>
+      <c r="D117" s="18"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="1">
@@ -17342,11 +17342,11 @@
       <c r="B118" s="3">
         <v>7</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D118" s="26"/>
-      <c r="E118" s="27"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="21"/>
       <c r="F118" s="11"/>
       <c r="G118" s="1">
         <v>0</v>
@@ -17359,10 +17359,10 @@
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="20">
+      <c r="B119" s="18">
         <v>7.1</v>
       </c>
-      <c r="C119" s="20"/>
+      <c r="C119" s="18"/>
       <c r="D119" s="11" t="s">
         <v>14</v>
       </c>
@@ -17379,10 +17379,10 @@
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="20">
+      <c r="B120" s="18">
         <v>7.2</v>
       </c>
-      <c r="C120" s="20"/>
+      <c r="C120" s="18"/>
       <c r="D120" s="11" t="s">
         <v>13</v>
       </c>
@@ -17399,10 +17399,10 @@
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="20">
+      <c r="B121" s="18">
         <v>7.3</v>
       </c>
-      <c r="C121" s="20"/>
+      <c r="C121" s="18"/>
       <c r="D121" s="11" t="s">
         <v>12</v>
       </c>
@@ -17422,11 +17422,11 @@
       <c r="B122" s="3">
         <v>8</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="C122" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="29"/>
-      <c r="E122" s="30"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="17"/>
       <c r="F122" s="11"/>
       <c r="G122" s="1">
         <v>0</v>
@@ -17439,10 +17439,10 @@
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B123" s="20">
+      <c r="B123" s="18">
         <v>8.1</v>
       </c>
-      <c r="C123" s="20"/>
+      <c r="C123" s="18"/>
       <c r="D123" s="11" t="s">
         <v>10</v>
       </c>
@@ -17459,10 +17459,10 @@
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="20">
+      <c r="B124" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C124" s="20"/>
+      <c r="C124" s="18"/>
       <c r="D124" s="11" t="s">
         <v>9</v>
       </c>
@@ -17482,11 +17482,11 @@
       <c r="B125" s="3">
         <v>9</v>
       </c>
-      <c r="C125" s="28" t="s">
+      <c r="C125" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="29"/>
-      <c r="E125" s="30"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="17"/>
       <c r="F125" s="11"/>
       <c r="G125" s="1">
         <v>0</v>
@@ -17499,10 +17499,10 @@
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="20">
+      <c r="B126" s="18">
         <v>9.1</v>
       </c>
-      <c r="C126" s="20"/>
+      <c r="C126" s="18"/>
       <c r="D126" s="13" t="s">
         <v>46</v>
       </c>
@@ -17519,10 +17519,10 @@
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="20">
+      <c r="B127" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C127" s="20"/>
+      <c r="C127" s="18"/>
       <c r="D127" s="11" t="s">
         <v>7</v>
       </c>
@@ -17539,10 +17539,10 @@
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="20">
+      <c r="B128" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C128" s="20"/>
+      <c r="C128" s="18"/>
       <c r="D128" s="11" t="s">
         <v>6</v>
       </c>
@@ -17562,10 +17562,10 @@
       <c r="B130" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D130" s="21"/>
+      <c r="D130" s="22"/>
       <c r="E130" s="12"/>
       <c r="F130" s="4" t="s">
         <v>3</v>
@@ -17584,10 +17584,10 @@
       <c r="B131" s="3">
         <v>1</v>
       </c>
-      <c r="C131" s="31" t="s">
+      <c r="C131" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D131" s="31"/>
+      <c r="D131" s="23"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="G131" s="1">
@@ -17604,10 +17604,10 @@
       <c r="B132" s="3">
         <v>2</v>
       </c>
-      <c r="C132" s="31" t="s">
+      <c r="C132" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D132" s="31"/>
+      <c r="D132" s="23"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" s="1">
@@ -17624,10 +17624,10 @@
       <c r="B133" s="3">
         <v>3</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D133" s="20"/>
+      <c r="D133" s="18"/>
       <c r="E133" s="11"/>
       <c r="F133" s="10" t="s">
         <v>49</v>
@@ -17646,10 +17646,10 @@
       <c r="B134" s="3">
         <v>4</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D134" s="20"/>
+      <c r="D134" s="18"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="G134" s="1">
@@ -17666,10 +17666,10 @@
       <c r="B135" s="3">
         <v>5</v>
       </c>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D135" s="20"/>
+      <c r="D135" s="18"/>
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="G135" s="1">
@@ -17686,10 +17686,10 @@
       <c r="B136" s="3">
         <v>6</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D136" s="20"/>
+      <c r="D136" s="18"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11" t="s">
         <v>53</v>
@@ -17708,11 +17708,11 @@
       <c r="B137" s="3">
         <v>7</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C137" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D137" s="26"/>
-      <c r="E137" s="27"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="21"/>
       <c r="F137" s="11"/>
       <c r="G137" s="1">
         <v>0</v>
@@ -17725,10 +17725,10 @@
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="20">
+      <c r="B138" s="18">
         <v>7.1</v>
       </c>
-      <c r="C138" s="20"/>
+      <c r="C138" s="18"/>
       <c r="D138" s="11" t="s">
         <v>14</v>
       </c>
@@ -17745,10 +17745,10 @@
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="20">
+      <c r="B139" s="18">
         <v>7.2</v>
       </c>
-      <c r="C139" s="20"/>
+      <c r="C139" s="18"/>
       <c r="D139" s="11" t="s">
         <v>13</v>
       </c>
@@ -17765,10 +17765,10 @@
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="20">
+      <c r="B140" s="18">
         <v>7.3</v>
       </c>
-      <c r="C140" s="20"/>
+      <c r="C140" s="18"/>
       <c r="D140" s="11" t="s">
         <v>12</v>
       </c>
@@ -17788,11 +17788,11 @@
       <c r="B141" s="3">
         <v>8</v>
       </c>
-      <c r="C141" s="28" t="s">
+      <c r="C141" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="29"/>
-      <c r="E141" s="30"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="17"/>
       <c r="F141" s="11"/>
       <c r="G141" s="1">
         <v>0</v>
@@ -17805,10 +17805,10 @@
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="20">
+      <c r="B142" s="18">
         <v>8.1</v>
       </c>
-      <c r="C142" s="20"/>
+      <c r="C142" s="18"/>
       <c r="D142" s="11" t="s">
         <v>10</v>
       </c>
@@ -17825,10 +17825,10 @@
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="20">
+      <c r="B143" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C143" s="20"/>
+      <c r="C143" s="18"/>
       <c r="D143" s="11" t="s">
         <v>9</v>
       </c>
@@ -17848,11 +17848,11 @@
       <c r="B144" s="3">
         <v>9</v>
       </c>
-      <c r="C144" s="28" t="s">
+      <c r="C144" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D144" s="29"/>
-      <c r="E144" s="30"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="17"/>
       <c r="F144" s="11"/>
       <c r="G144" s="1">
         <v>0</v>
@@ -17865,10 +17865,10 @@
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" s="20">
+      <c r="B145" s="18">
         <v>9.1</v>
       </c>
-      <c r="C145" s="20"/>
+      <c r="C145" s="18"/>
       <c r="D145" s="13" t="s">
         <v>46</v>
       </c>
@@ -17885,10 +17885,10 @@
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="20">
+      <c r="B146" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C146" s="20"/>
+      <c r="C146" s="18"/>
       <c r="D146" s="11" t="s">
         <v>7</v>
       </c>
@@ -17905,10 +17905,10 @@
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="20">
+      <c r="B147" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C147" s="20"/>
+      <c r="C147" s="18"/>
       <c r="D147" s="11" t="s">
         <v>6</v>
       </c>
@@ -17928,10 +17928,10 @@
       <c r="B149" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C149" s="21" t="s">
+      <c r="C149" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D149" s="21"/>
+      <c r="D149" s="22"/>
       <c r="E149" s="12"/>
       <c r="F149" s="4" t="s">
         <v>3</v>
@@ -17950,10 +17950,10 @@
       <c r="B150" s="3">
         <v>1</v>
       </c>
-      <c r="C150" s="31" t="s">
+      <c r="C150" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D150" s="31"/>
+      <c r="D150" s="23"/>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="1">
@@ -17970,10 +17970,10 @@
       <c r="B151" s="3">
         <v>2</v>
       </c>
-      <c r="C151" s="31" t="s">
+      <c r="C151" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D151" s="31"/>
+      <c r="D151" s="23"/>
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
       <c r="G151" s="1">
@@ -17990,10 +17990,10 @@
       <c r="B152" s="3">
         <v>3</v>
       </c>
-      <c r="C152" s="20" t="s">
+      <c r="C152" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D152" s="20"/>
+      <c r="D152" s="18"/>
       <c r="E152" s="11"/>
       <c r="F152" s="10" t="s">
         <v>49</v>
@@ -18012,10 +18012,10 @@
       <c r="B153" s="3">
         <v>4</v>
       </c>
-      <c r="C153" s="20" t="s">
+      <c r="C153" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D153" s="20"/>
+      <c r="D153" s="18"/>
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
       <c r="G153" s="1">
@@ -18032,10 +18032,10 @@
       <c r="B154" s="3">
         <v>5</v>
       </c>
-      <c r="C154" s="20" t="s">
+      <c r="C154" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D154" s="20"/>
+      <c r="D154" s="18"/>
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
       <c r="G154" s="1">
@@ -18052,10 +18052,10 @@
       <c r="B155" s="3">
         <v>6</v>
       </c>
-      <c r="C155" s="20" t="s">
+      <c r="C155" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D155" s="20"/>
+      <c r="D155" s="18"/>
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
       <c r="G155" s="1">
@@ -18072,11 +18072,11 @@
       <c r="B156" s="3">
         <v>7</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="C156" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="26"/>
-      <c r="E156" s="27"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="21"/>
       <c r="F156" s="11"/>
       <c r="G156" s="1">
         <v>0</v>
@@ -18089,10 +18089,10 @@
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B157" s="20">
+      <c r="B157" s="18">
         <v>7.1</v>
       </c>
-      <c r="C157" s="20"/>
+      <c r="C157" s="18"/>
       <c r="D157" s="11" t="s">
         <v>14</v>
       </c>
@@ -18109,10 +18109,10 @@
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B158" s="20">
+      <c r="B158" s="18">
         <v>7.2</v>
       </c>
-      <c r="C158" s="20"/>
+      <c r="C158" s="18"/>
       <c r="D158" s="11" t="s">
         <v>13</v>
       </c>
@@ -18129,10 +18129,10 @@
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="20">
+      <c r="B159" s="18">
         <v>7.3</v>
       </c>
-      <c r="C159" s="20"/>
+      <c r="C159" s="18"/>
       <c r="D159" s="11" t="s">
         <v>12</v>
       </c>
@@ -18152,11 +18152,11 @@
       <c r="B160" s="3">
         <v>8</v>
       </c>
-      <c r="C160" s="28" t="s">
+      <c r="C160" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="29"/>
-      <c r="E160" s="30"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="17"/>
       <c r="F160" s="11"/>
       <c r="G160" s="1">
         <v>0</v>
@@ -18169,10 +18169,10 @@
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161" s="20">
+      <c r="B161" s="18">
         <v>8.1</v>
       </c>
-      <c r="C161" s="20"/>
+      <c r="C161" s="18"/>
       <c r="D161" s="11" t="s">
         <v>10</v>
       </c>
@@ -18189,10 +18189,10 @@
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B162" s="20">
+      <c r="B162" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C162" s="20"/>
+      <c r="C162" s="18"/>
       <c r="D162" s="11" t="s">
         <v>9</v>
       </c>
@@ -18212,11 +18212,11 @@
       <c r="B163" s="3">
         <v>9</v>
       </c>
-      <c r="C163" s="28" t="s">
+      <c r="C163" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D163" s="29"/>
-      <c r="E163" s="30"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="17"/>
       <c r="F163" s="11"/>
       <c r="G163" s="1">
         <v>0</v>
@@ -18229,10 +18229,10 @@
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B164" s="20">
+      <c r="B164" s="18">
         <v>9.1</v>
       </c>
-      <c r="C164" s="20"/>
+      <c r="C164" s="18"/>
       <c r="D164" s="13" t="s">
         <v>46</v>
       </c>
@@ -18249,10 +18249,10 @@
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B165" s="20">
+      <c r="B165" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C165" s="20"/>
+      <c r="C165" s="18"/>
       <c r="D165" s="11" t="s">
         <v>7</v>
       </c>
@@ -18269,10 +18269,10 @@
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B166" s="20">
+      <c r="B166" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C166" s="20"/>
+      <c r="C166" s="18"/>
       <c r="D166" s="11" t="s">
         <v>6</v>
       </c>
@@ -18292,10 +18292,10 @@
       <c r="B168" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C168" s="21" t="s">
+      <c r="C168" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D168" s="21"/>
+      <c r="D168" s="22"/>
       <c r="E168" s="12"/>
       <c r="F168" s="4" t="s">
         <v>3</v>
@@ -18314,10 +18314,10 @@
       <c r="B169" s="3">
         <v>1</v>
       </c>
-      <c r="C169" s="31" t="s">
+      <c r="C169" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D169" s="31"/>
+      <c r="D169" s="23"/>
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
       <c r="G169" s="1">
@@ -18334,10 +18334,10 @@
       <c r="B170" s="3">
         <v>2</v>
       </c>
-      <c r="C170" s="31" t="s">
+      <c r="C170" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D170" s="31"/>
+      <c r="D170" s="23"/>
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
       <c r="G170" s="1">
@@ -18354,10 +18354,10 @@
       <c r="B171" s="3">
         <v>3</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D171" s="20"/>
+      <c r="D171" s="18"/>
       <c r="E171" s="11"/>
       <c r="F171" s="10" t="s">
         <v>54</v>
@@ -18376,10 +18376,10 @@
       <c r="B172" s="3">
         <v>4</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D172" s="20"/>
+      <c r="D172" s="18"/>
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
       <c r="G172" s="1">
@@ -18396,10 +18396,10 @@
       <c r="B173" s="3">
         <v>5</v>
       </c>
-      <c r="C173" s="20" t="s">
+      <c r="C173" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D173" s="20"/>
+      <c r="D173" s="18"/>
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
       <c r="G173" s="1">
@@ -18416,10 +18416,10 @@
       <c r="B174" s="3">
         <v>6</v>
       </c>
-      <c r="C174" s="20" t="s">
+      <c r="C174" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D174" s="20"/>
+      <c r="D174" s="18"/>
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
       <c r="G174" s="1">
@@ -18436,11 +18436,11 @@
       <c r="B175" s="3">
         <v>7</v>
       </c>
-      <c r="C175" s="25" t="s">
+      <c r="C175" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="26"/>
-      <c r="E175" s="27"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="21"/>
       <c r="F175" s="11"/>
       <c r="G175" s="1">
         <v>0</v>
@@ -18453,10 +18453,10 @@
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B176" s="20">
+      <c r="B176" s="18">
         <v>7.1</v>
       </c>
-      <c r="C176" s="20"/>
+      <c r="C176" s="18"/>
       <c r="D176" s="11" t="s">
         <v>14</v>
       </c>
@@ -18473,10 +18473,10 @@
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B177" s="20">
+      <c r="B177" s="18">
         <v>7.2</v>
       </c>
-      <c r="C177" s="20"/>
+      <c r="C177" s="18"/>
       <c r="D177" s="11" t="s">
         <v>13</v>
       </c>
@@ -18493,10 +18493,10 @@
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B178" s="20">
+      <c r="B178" s="18">
         <v>7.3</v>
       </c>
-      <c r="C178" s="20"/>
+      <c r="C178" s="18"/>
       <c r="D178" s="11" t="s">
         <v>12</v>
       </c>
@@ -18516,11 +18516,11 @@
       <c r="B179" s="3">
         <v>8</v>
       </c>
-      <c r="C179" s="28" t="s">
+      <c r="C179" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D179" s="29"/>
-      <c r="E179" s="30"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="17"/>
       <c r="F179" s="11"/>
       <c r="G179" s="1">
         <v>0</v>
@@ -18533,10 +18533,10 @@
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B180" s="20">
+      <c r="B180" s="18">
         <v>8.1</v>
       </c>
-      <c r="C180" s="20"/>
+      <c r="C180" s="18"/>
       <c r="D180" s="11" t="s">
         <v>10</v>
       </c>
@@ -18553,10 +18553,10 @@
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="20">
+      <c r="B181" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C181" s="20"/>
+      <c r="C181" s="18"/>
       <c r="D181" s="11" t="s">
         <v>9</v>
       </c>
@@ -18576,11 +18576,11 @@
       <c r="B182" s="3">
         <v>9</v>
       </c>
-      <c r="C182" s="28" t="s">
+      <c r="C182" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D182" s="29"/>
-      <c r="E182" s="30"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="17"/>
       <c r="F182" s="11"/>
       <c r="G182" s="1">
         <v>0</v>
@@ -18593,10 +18593,10 @@
       </c>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B183" s="20">
+      <c r="B183" s="18">
         <v>9.1</v>
       </c>
-      <c r="C183" s="20"/>
+      <c r="C183" s="18"/>
       <c r="D183" s="13" t="s">
         <v>46</v>
       </c>
@@ -18613,10 +18613,10 @@
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B184" s="20">
+      <c r="B184" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C184" s="20"/>
+      <c r="C184" s="18"/>
       <c r="D184" s="11" t="s">
         <v>7</v>
       </c>
@@ -18633,10 +18633,10 @@
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B185" s="20">
+      <c r="B185" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C185" s="20"/>
+      <c r="C185" s="18"/>
       <c r="D185" s="11" t="s">
         <v>6</v>
       </c>
@@ -18656,10 +18656,10 @@
       <c r="B187" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C187" s="21" t="s">
+      <c r="C187" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D187" s="21"/>
+      <c r="D187" s="22"/>
       <c r="E187" s="12"/>
       <c r="F187" s="4" t="s">
         <v>3</v>
@@ -18678,10 +18678,10 @@
       <c r="B188" s="3">
         <v>1</v>
       </c>
-      <c r="C188" s="31" t="s">
+      <c r="C188" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D188" s="31"/>
+      <c r="D188" s="23"/>
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
       <c r="G188" s="1">
@@ -18698,10 +18698,10 @@
       <c r="B189" s="3">
         <v>2</v>
       </c>
-      <c r="C189" s="31" t="s">
+      <c r="C189" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D189" s="31"/>
+      <c r="D189" s="23"/>
       <c r="E189" s="11"/>
       <c r="F189" s="11"/>
       <c r="G189" s="1">
@@ -18718,10 +18718,10 @@
       <c r="B190" s="3">
         <v>3</v>
       </c>
-      <c r="C190" s="20" t="s">
+      <c r="C190" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D190" s="20"/>
+      <c r="D190" s="18"/>
       <c r="E190" s="11"/>
       <c r="F190" s="10" t="s">
         <v>55</v>
@@ -18740,10 +18740,10 @@
       <c r="B191" s="3">
         <v>4</v>
       </c>
-      <c r="C191" s="20" t="s">
+      <c r="C191" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D191" s="20"/>
+      <c r="D191" s="18"/>
       <c r="E191" s="11"/>
       <c r="F191" s="11"/>
       <c r="G191" s="1">
@@ -18760,10 +18760,10 @@
       <c r="B192" s="3">
         <v>5</v>
       </c>
-      <c r="C192" s="20" t="s">
+      <c r="C192" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D192" s="20"/>
+      <c r="D192" s="18"/>
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
       <c r="G192" s="1">
@@ -18780,10 +18780,10 @@
       <c r="B193" s="3">
         <v>6</v>
       </c>
-      <c r="C193" s="20" t="s">
+      <c r="C193" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D193" s="20"/>
+      <c r="D193" s="18"/>
       <c r="E193" s="11"/>
       <c r="F193" s="11"/>
       <c r="G193" s="1">
@@ -18800,11 +18800,11 @@
       <c r="B194" s="3">
         <v>7</v>
       </c>
-      <c r="C194" s="25" t="s">
+      <c r="C194" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D194" s="26"/>
-      <c r="E194" s="27"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="21"/>
       <c r="F194" s="11"/>
       <c r="G194" s="1">
         <v>0</v>
@@ -18817,10 +18817,10 @@
       </c>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B195" s="20">
+      <c r="B195" s="18">
         <v>7.1</v>
       </c>
-      <c r="C195" s="20"/>
+      <c r="C195" s="18"/>
       <c r="D195" s="11" t="s">
         <v>14</v>
       </c>
@@ -18837,10 +18837,10 @@
       </c>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B196" s="20">
+      <c r="B196" s="18">
         <v>7.2</v>
       </c>
-      <c r="C196" s="20"/>
+      <c r="C196" s="18"/>
       <c r="D196" s="11" t="s">
         <v>13</v>
       </c>
@@ -18857,10 +18857,10 @@
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B197" s="20">
+      <c r="B197" s="18">
         <v>7.3</v>
       </c>
-      <c r="C197" s="20"/>
+      <c r="C197" s="18"/>
       <c r="D197" s="11" t="s">
         <v>12</v>
       </c>
@@ -18880,11 +18880,11 @@
       <c r="B198" s="3">
         <v>8</v>
       </c>
-      <c r="C198" s="28" t="s">
+      <c r="C198" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D198" s="29"/>
-      <c r="E198" s="30"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="17"/>
       <c r="F198" s="11"/>
       <c r="G198" s="1">
         <v>0</v>
@@ -18897,10 +18897,10 @@
       </c>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B199" s="20">
+      <c r="B199" s="18">
         <v>8.1</v>
       </c>
-      <c r="C199" s="20"/>
+      <c r="C199" s="18"/>
       <c r="D199" s="11" t="s">
         <v>10</v>
       </c>
@@ -18917,10 +18917,10 @@
       </c>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B200" s="20">
+      <c r="B200" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C200" s="20"/>
+      <c r="C200" s="18"/>
       <c r="D200" s="11" t="s">
         <v>9</v>
       </c>
@@ -18940,11 +18940,11 @@
       <c r="B201" s="3">
         <v>9</v>
       </c>
-      <c r="C201" s="28" t="s">
+      <c r="C201" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D201" s="29"/>
-      <c r="E201" s="30"/>
+      <c r="D201" s="16"/>
+      <c r="E201" s="17"/>
       <c r="F201" s="11"/>
       <c r="G201" s="1">
         <v>0</v>
@@ -18957,10 +18957,10 @@
       </c>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B202" s="20">
+      <c r="B202" s="18">
         <v>9.1</v>
       </c>
-      <c r="C202" s="20"/>
+      <c r="C202" s="18"/>
       <c r="D202" s="13" t="s">
         <v>46</v>
       </c>
@@ -18977,10 +18977,10 @@
       </c>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B203" s="20">
+      <c r="B203" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C203" s="20"/>
+      <c r="C203" s="18"/>
       <c r="D203" s="11" t="s">
         <v>7</v>
       </c>
@@ -18997,10 +18997,10 @@
       </c>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B204" s="20">
+      <c r="B204" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C204" s="20"/>
+      <c r="C204" s="18"/>
       <c r="D204" s="11" t="s">
         <v>6</v>
       </c>
@@ -19020,10 +19020,10 @@
       <c r="B206" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C206" s="21" t="s">
+      <c r="C206" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D206" s="21"/>
+      <c r="D206" s="22"/>
       <c r="E206" s="12"/>
       <c r="F206" s="4" t="s">
         <v>3</v>
@@ -19042,10 +19042,10 @@
       <c r="B207" s="3">
         <v>1</v>
       </c>
-      <c r="C207" s="31" t="s">
+      <c r="C207" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D207" s="31"/>
+      <c r="D207" s="23"/>
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
       <c r="G207" s="1">
@@ -19062,10 +19062,10 @@
       <c r="B208" s="3">
         <v>2</v>
       </c>
-      <c r="C208" s="31" t="s">
+      <c r="C208" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D208" s="31"/>
+      <c r="D208" s="23"/>
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
       <c r="G208" s="1">
@@ -19082,10 +19082,10 @@
       <c r="B209" s="3">
         <v>3</v>
       </c>
-      <c r="C209" s="20" t="s">
+      <c r="C209" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D209" s="20"/>
+      <c r="D209" s="18"/>
       <c r="E209" s="11"/>
       <c r="F209" s="10" t="s">
         <v>49</v>
@@ -19104,10 +19104,10 @@
       <c r="B210" s="3">
         <v>4</v>
       </c>
-      <c r="C210" s="20" t="s">
+      <c r="C210" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D210" s="20"/>
+      <c r="D210" s="18"/>
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
       <c r="G210" s="1">
@@ -19124,10 +19124,10 @@
       <c r="B211" s="3">
         <v>5</v>
       </c>
-      <c r="C211" s="20" t="s">
+      <c r="C211" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D211" s="20"/>
+      <c r="D211" s="18"/>
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
       <c r="G211" s="1">
@@ -19144,10 +19144,10 @@
       <c r="B212" s="3">
         <v>6</v>
       </c>
-      <c r="C212" s="20" t="s">
+      <c r="C212" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D212" s="20"/>
+      <c r="D212" s="18"/>
       <c r="E212" s="11"/>
       <c r="F212" s="11"/>
       <c r="G212" s="1">
@@ -19164,11 +19164,11 @@
       <c r="B213" s="3">
         <v>7</v>
       </c>
-      <c r="C213" s="25" t="s">
+      <c r="C213" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D213" s="26"/>
-      <c r="E213" s="27"/>
+      <c r="D213" s="20"/>
+      <c r="E213" s="21"/>
       <c r="F213" s="11"/>
       <c r="G213" s="1">
         <v>0</v>
@@ -19181,10 +19181,10 @@
       </c>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B214" s="20">
+      <c r="B214" s="18">
         <v>7.1</v>
       </c>
-      <c r="C214" s="20"/>
+      <c r="C214" s="18"/>
       <c r="D214" s="11" t="s">
         <v>14</v>
       </c>
@@ -19201,10 +19201,10 @@
       </c>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B215" s="20">
+      <c r="B215" s="18">
         <v>7.2</v>
       </c>
-      <c r="C215" s="20"/>
+      <c r="C215" s="18"/>
       <c r="D215" s="11" t="s">
         <v>13</v>
       </c>
@@ -19221,10 +19221,10 @@
       </c>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B216" s="20">
+      <c r="B216" s="18">
         <v>7.3</v>
       </c>
-      <c r="C216" s="20"/>
+      <c r="C216" s="18"/>
       <c r="D216" s="11" t="s">
         <v>12</v>
       </c>
@@ -19244,11 +19244,11 @@
       <c r="B217" s="3">
         <v>8</v>
       </c>
-      <c r="C217" s="28" t="s">
+      <c r="C217" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D217" s="29"/>
-      <c r="E217" s="30"/>
+      <c r="D217" s="16"/>
+      <c r="E217" s="17"/>
       <c r="F217" s="11"/>
       <c r="G217" s="1">
         <v>0</v>
@@ -19261,10 +19261,10 @@
       </c>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B218" s="20">
+      <c r="B218" s="18">
         <v>8.1</v>
       </c>
-      <c r="C218" s="20"/>
+      <c r="C218" s="18"/>
       <c r="D218" s="11" t="s">
         <v>10</v>
       </c>
@@ -19281,10 +19281,10 @@
       </c>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B219" s="20">
+      <c r="B219" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C219" s="20"/>
+      <c r="C219" s="18"/>
       <c r="D219" s="11" t="s">
         <v>9</v>
       </c>
@@ -19304,11 +19304,11 @@
       <c r="B220" s="3">
         <v>9</v>
       </c>
-      <c r="C220" s="28" t="s">
+      <c r="C220" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D220" s="29"/>
-      <c r="E220" s="30"/>
+      <c r="D220" s="16"/>
+      <c r="E220" s="17"/>
       <c r="F220" s="11"/>
       <c r="G220" s="1">
         <v>0</v>
@@ -19321,10 +19321,10 @@
       </c>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B221" s="20">
+      <c r="B221" s="18">
         <v>9.1</v>
       </c>
-      <c r="C221" s="20"/>
+      <c r="C221" s="18"/>
       <c r="D221" s="13" t="s">
         <v>46</v>
       </c>
@@ -19341,10 +19341,10 @@
       </c>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B222" s="20">
+      <c r="B222" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C222" s="20"/>
+      <c r="C222" s="18"/>
       <c r="D222" s="11" t="s">
         <v>7</v>
       </c>
@@ -19361,10 +19361,10 @@
       </c>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B223" s="20">
+      <c r="B223" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C223" s="20"/>
+      <c r="C223" s="18"/>
       <c r="D223" s="11" t="s">
         <v>6</v>
       </c>
@@ -19384,10 +19384,10 @@
       <c r="B225" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C225" s="21" t="s">
+      <c r="C225" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D225" s="21"/>
+      <c r="D225" s="22"/>
       <c r="E225" s="12"/>
       <c r="F225" s="4" t="s">
         <v>3</v>
@@ -19406,10 +19406,10 @@
       <c r="B226" s="3">
         <v>1</v>
       </c>
-      <c r="C226" s="31" t="s">
+      <c r="C226" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D226" s="31"/>
+      <c r="D226" s="23"/>
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
       <c r="G226" s="1">
@@ -19426,10 +19426,10 @@
       <c r="B227" s="3">
         <v>2</v>
       </c>
-      <c r="C227" s="31" t="s">
+      <c r="C227" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D227" s="31"/>
+      <c r="D227" s="23"/>
       <c r="E227" s="11"/>
       <c r="F227" s="11"/>
       <c r="G227" s="1">
@@ -19446,10 +19446,10 @@
       <c r="B228" s="3">
         <v>3</v>
       </c>
-      <c r="C228" s="20" t="s">
+      <c r="C228" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D228" s="20"/>
+      <c r="D228" s="18"/>
       <c r="E228" s="11"/>
       <c r="F228" s="10" t="s">
         <v>56</v>
@@ -19468,10 +19468,10 @@
       <c r="B229" s="3">
         <v>4</v>
       </c>
-      <c r="C229" s="20" t="s">
+      <c r="C229" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D229" s="20"/>
+      <c r="D229" s="18"/>
       <c r="E229" s="11"/>
       <c r="F229" s="11"/>
       <c r="G229" s="1">
@@ -19488,10 +19488,10 @@
       <c r="B230" s="3">
         <v>5</v>
       </c>
-      <c r="C230" s="20" t="s">
+      <c r="C230" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D230" s="20"/>
+      <c r="D230" s="18"/>
       <c r="E230" s="11"/>
       <c r="F230" s="11"/>
       <c r="G230" s="1">
@@ -19508,10 +19508,10 @@
       <c r="B231" s="3">
         <v>6</v>
       </c>
-      <c r="C231" s="20" t="s">
+      <c r="C231" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D231" s="20"/>
+      <c r="D231" s="18"/>
       <c r="E231" s="11"/>
       <c r="F231" s="11"/>
       <c r="G231" s="1">
@@ -19528,11 +19528,11 @@
       <c r="B232" s="3">
         <v>7</v>
       </c>
-      <c r="C232" s="25" t="s">
+      <c r="C232" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="26"/>
-      <c r="E232" s="27"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="21"/>
       <c r="F232" s="11"/>
       <c r="G232" s="1">
         <v>0</v>
@@ -19545,10 +19545,10 @@
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B233" s="20">
+      <c r="B233" s="18">
         <v>7.1</v>
       </c>
-      <c r="C233" s="20"/>
+      <c r="C233" s="18"/>
       <c r="D233" s="11" t="s">
         <v>14</v>
       </c>
@@ -19565,10 +19565,10 @@
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B234" s="20">
+      <c r="B234" s="18">
         <v>7.2</v>
       </c>
-      <c r="C234" s="20"/>
+      <c r="C234" s="18"/>
       <c r="D234" s="11" t="s">
         <v>13</v>
       </c>
@@ -19585,10 +19585,10 @@
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B235" s="20">
+      <c r="B235" s="18">
         <v>7.3</v>
       </c>
-      <c r="C235" s="20"/>
+      <c r="C235" s="18"/>
       <c r="D235" s="11" t="s">
         <v>12</v>
       </c>
@@ -19608,11 +19608,11 @@
       <c r="B236" s="3">
         <v>8</v>
       </c>
-      <c r="C236" s="28" t="s">
+      <c r="C236" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D236" s="29"/>
-      <c r="E236" s="30"/>
+      <c r="D236" s="16"/>
+      <c r="E236" s="17"/>
       <c r="F236" s="11"/>
       <c r="G236" s="1">
         <v>0</v>
@@ -19625,10 +19625,10 @@
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B237" s="20">
+      <c r="B237" s="18">
         <v>8.1</v>
       </c>
-      <c r="C237" s="20"/>
+      <c r="C237" s="18"/>
       <c r="D237" s="11" t="s">
         <v>10</v>
       </c>
@@ -19645,10 +19645,10 @@
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B238" s="20">
+      <c r="B238" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C238" s="20"/>
+      <c r="C238" s="18"/>
       <c r="D238" s="11" t="s">
         <v>9</v>
       </c>
@@ -19668,11 +19668,11 @@
       <c r="B239" s="3">
         <v>9</v>
       </c>
-      <c r="C239" s="28" t="s">
+      <c r="C239" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D239" s="29"/>
-      <c r="E239" s="30"/>
+      <c r="D239" s="16"/>
+      <c r="E239" s="17"/>
       <c r="F239" s="11"/>
       <c r="G239" s="1">
         <v>0</v>
@@ -19685,10 +19685,10 @@
       </c>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B240" s="20">
+      <c r="B240" s="18">
         <v>9.1</v>
       </c>
-      <c r="C240" s="20"/>
+      <c r="C240" s="18"/>
       <c r="D240" s="13" t="s">
         <v>46</v>
       </c>
@@ -19705,10 +19705,10 @@
       </c>
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B241" s="20">
+      <c r="B241" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C241" s="20"/>
+      <c r="C241" s="18"/>
       <c r="D241" s="11" t="s">
         <v>7</v>
       </c>
@@ -19725,10 +19725,10 @@
       </c>
     </row>
     <row r="242" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B242" s="20">
+      <c r="B242" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C242" s="20"/>
+      <c r="C242" s="18"/>
       <c r="D242" s="11" t="s">
         <v>6</v>
       </c>
@@ -19748,10 +19748,10 @@
       <c r="B244" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C244" s="21" t="s">
+      <c r="C244" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D244" s="21"/>
+      <c r="D244" s="22"/>
       <c r="E244" s="12"/>
       <c r="F244" s="4" t="s">
         <v>3</v>
@@ -19770,10 +19770,10 @@
       <c r="B245" s="3">
         <v>1</v>
       </c>
-      <c r="C245" s="31" t="s">
+      <c r="C245" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D245" s="31"/>
+      <c r="D245" s="23"/>
       <c r="E245" s="11"/>
       <c r="F245" s="11"/>
       <c r="G245" s="1">
@@ -19790,10 +19790,10 @@
       <c r="B246" s="3">
         <v>2</v>
       </c>
-      <c r="C246" s="31" t="s">
+      <c r="C246" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D246" s="31"/>
+      <c r="D246" s="23"/>
       <c r="E246" s="11"/>
       <c r="F246" s="11"/>
       <c r="G246" s="1">
@@ -19810,10 +19810,10 @@
       <c r="B247" s="3">
         <v>3</v>
       </c>
-      <c r="C247" s="20" t="s">
+      <c r="C247" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D247" s="20"/>
+      <c r="D247" s="18"/>
       <c r="E247" s="11"/>
       <c r="F247" s="10" t="s">
         <v>56</v>
@@ -19832,10 +19832,10 @@
       <c r="B248" s="3">
         <v>4</v>
       </c>
-      <c r="C248" s="20" t="s">
+      <c r="C248" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D248" s="20"/>
+      <c r="D248" s="18"/>
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
       <c r="G248" s="1">
@@ -19852,10 +19852,10 @@
       <c r="B249" s="3">
         <v>5</v>
       </c>
-      <c r="C249" s="20" t="s">
+      <c r="C249" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D249" s="20"/>
+      <c r="D249" s="18"/>
       <c r="E249" s="11"/>
       <c r="F249" s="11"/>
       <c r="G249" s="1">
@@ -19872,10 +19872,10 @@
       <c r="B250" s="3">
         <v>6</v>
       </c>
-      <c r="C250" s="20" t="s">
+      <c r="C250" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D250" s="20"/>
+      <c r="D250" s="18"/>
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
       <c r="G250" s="1">
@@ -19892,11 +19892,11 @@
       <c r="B251" s="3">
         <v>7</v>
       </c>
-      <c r="C251" s="25" t="s">
+      <c r="C251" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D251" s="26"/>
-      <c r="E251" s="27"/>
+      <c r="D251" s="20"/>
+      <c r="E251" s="21"/>
       <c r="F251" s="11"/>
       <c r="G251" s="1">
         <v>0</v>
@@ -19909,10 +19909,10 @@
       </c>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B252" s="20">
+      <c r="B252" s="18">
         <v>7.1</v>
       </c>
-      <c r="C252" s="20"/>
+      <c r="C252" s="18"/>
       <c r="D252" s="11" t="s">
         <v>14</v>
       </c>
@@ -19929,10 +19929,10 @@
       </c>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B253" s="20">
+      <c r="B253" s="18">
         <v>7.2</v>
       </c>
-      <c r="C253" s="20"/>
+      <c r="C253" s="18"/>
       <c r="D253" s="11" t="s">
         <v>13</v>
       </c>
@@ -19949,10 +19949,10 @@
       </c>
     </row>
     <row r="254" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B254" s="20">
+      <c r="B254" s="18">
         <v>7.3</v>
       </c>
-      <c r="C254" s="20"/>
+      <c r="C254" s="18"/>
       <c r="D254" s="11" t="s">
         <v>12</v>
       </c>
@@ -19972,11 +19972,11 @@
       <c r="B255" s="3">
         <v>8</v>
       </c>
-      <c r="C255" s="28" t="s">
+      <c r="C255" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D255" s="29"/>
-      <c r="E255" s="30"/>
+      <c r="D255" s="16"/>
+      <c r="E255" s="17"/>
       <c r="F255" s="11"/>
       <c r="G255" s="1">
         <v>0</v>
@@ -19989,10 +19989,10 @@
       </c>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B256" s="20">
+      <c r="B256" s="18">
         <v>8.1</v>
       </c>
-      <c r="C256" s="20"/>
+      <c r="C256" s="18"/>
       <c r="D256" s="11" t="s">
         <v>10</v>
       </c>
@@ -20009,10 +20009,10 @@
       </c>
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B257" s="20">
+      <c r="B257" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C257" s="20"/>
+      <c r="C257" s="18"/>
       <c r="D257" s="11" t="s">
         <v>9</v>
       </c>
@@ -20032,11 +20032,11 @@
       <c r="B258" s="3">
         <v>9</v>
       </c>
-      <c r="C258" s="28" t="s">
+      <c r="C258" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D258" s="29"/>
-      <c r="E258" s="30"/>
+      <c r="D258" s="16"/>
+      <c r="E258" s="17"/>
       <c r="F258" s="11"/>
       <c r="G258" s="1">
         <v>0</v>
@@ -20049,10 +20049,10 @@
       </c>
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B259" s="20">
+      <c r="B259" s="18">
         <v>9.1</v>
       </c>
-      <c r="C259" s="20"/>
+      <c r="C259" s="18"/>
       <c r="D259" s="13" t="s">
         <v>46</v>
       </c>
@@ -20069,10 +20069,10 @@
       </c>
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B260" s="20">
+      <c r="B260" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C260" s="20"/>
+      <c r="C260" s="18"/>
       <c r="D260" s="11" t="s">
         <v>7</v>
       </c>
@@ -20089,10 +20089,10 @@
       </c>
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B261" s="20">
+      <c r="B261" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C261" s="20"/>
+      <c r="C261" s="18"/>
       <c r="D261" s="11" t="s">
         <v>6</v>
       </c>
@@ -20112,10 +20112,10 @@
       <c r="B263" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C263" s="21" t="s">
+      <c r="C263" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D263" s="21"/>
+      <c r="D263" s="22"/>
       <c r="E263" s="12"/>
       <c r="F263" s="4" t="s">
         <v>3</v>
@@ -20134,10 +20134,10 @@
       <c r="B264" s="3">
         <v>1</v>
       </c>
-      <c r="C264" s="31" t="s">
+      <c r="C264" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D264" s="31"/>
+      <c r="D264" s="23"/>
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
       <c r="G264" s="1">
@@ -20154,10 +20154,10 @@
       <c r="B265" s="3">
         <v>2</v>
       </c>
-      <c r="C265" s="31" t="s">
+      <c r="C265" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D265" s="31"/>
+      <c r="D265" s="23"/>
       <c r="E265" s="11"/>
       <c r="F265" s="11"/>
       <c r="G265" s="1">
@@ -20174,10 +20174,10 @@
       <c r="B266" s="3">
         <v>3</v>
       </c>
-      <c r="C266" s="20" t="s">
+      <c r="C266" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D266" s="20"/>
+      <c r="D266" s="18"/>
       <c r="E266" s="11"/>
       <c r="F266" s="10" t="s">
         <v>56</v>
@@ -20196,10 +20196,10 @@
       <c r="B267" s="3">
         <v>4</v>
       </c>
-      <c r="C267" s="20" t="s">
+      <c r="C267" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D267" s="20"/>
+      <c r="D267" s="18"/>
       <c r="E267" s="11"/>
       <c r="F267" s="11"/>
       <c r="G267" s="1">
@@ -20216,10 +20216,10 @@
       <c r="B268" s="3">
         <v>5</v>
       </c>
-      <c r="C268" s="20" t="s">
+      <c r="C268" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D268" s="20"/>
+      <c r="D268" s="18"/>
       <c r="E268" s="11"/>
       <c r="F268" s="11"/>
       <c r="G268" s="1">
@@ -20236,10 +20236,10 @@
       <c r="B269" s="3">
         <v>6</v>
       </c>
-      <c r="C269" s="20" t="s">
+      <c r="C269" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D269" s="20"/>
+      <c r="D269" s="18"/>
       <c r="E269" s="11"/>
       <c r="F269" s="11"/>
       <c r="G269" s="1">
@@ -20256,11 +20256,11 @@
       <c r="B270" s="3">
         <v>7</v>
       </c>
-      <c r="C270" s="25" t="s">
+      <c r="C270" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D270" s="26"/>
-      <c r="E270" s="27"/>
+      <c r="D270" s="20"/>
+      <c r="E270" s="21"/>
       <c r="F270" s="11"/>
       <c r="G270" s="1">
         <v>0</v>
@@ -20273,10 +20273,10 @@
       </c>
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B271" s="20">
+      <c r="B271" s="18">
         <v>7.1</v>
       </c>
-      <c r="C271" s="20"/>
+      <c r="C271" s="18"/>
       <c r="D271" s="11" t="s">
         <v>14</v>
       </c>
@@ -20293,10 +20293,10 @@
       </c>
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B272" s="20">
+      <c r="B272" s="18">
         <v>7.2</v>
       </c>
-      <c r="C272" s="20"/>
+      <c r="C272" s="18"/>
       <c r="D272" s="11" t="s">
         <v>13</v>
       </c>
@@ -20313,10 +20313,10 @@
       </c>
     </row>
     <row r="273" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B273" s="20">
+      <c r="B273" s="18">
         <v>7.3</v>
       </c>
-      <c r="C273" s="20"/>
+      <c r="C273" s="18"/>
       <c r="D273" s="11" t="s">
         <v>12</v>
       </c>
@@ -20336,11 +20336,11 @@
       <c r="B274" s="3">
         <v>8</v>
       </c>
-      <c r="C274" s="28" t="s">
+      <c r="C274" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D274" s="29"/>
-      <c r="E274" s="30"/>
+      <c r="D274" s="16"/>
+      <c r="E274" s="17"/>
       <c r="F274" s="11"/>
       <c r="G274" s="1">
         <v>0</v>
@@ -20353,10 +20353,10 @@
       </c>
     </row>
     <row r="275" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B275" s="20">
+      <c r="B275" s="18">
         <v>8.1</v>
       </c>
-      <c r="C275" s="20"/>
+      <c r="C275" s="18"/>
       <c r="D275" s="11" t="s">
         <v>10</v>
       </c>
@@ -20373,10 +20373,10 @@
       </c>
     </row>
     <row r="276" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B276" s="20">
+      <c r="B276" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C276" s="20"/>
+      <c r="C276" s="18"/>
       <c r="D276" s="11" t="s">
         <v>9</v>
       </c>
@@ -20396,11 +20396,11 @@
       <c r="B277" s="3">
         <v>9</v>
       </c>
-      <c r="C277" s="28" t="s">
+      <c r="C277" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D277" s="29"/>
-      <c r="E277" s="30"/>
+      <c r="D277" s="16"/>
+      <c r="E277" s="17"/>
       <c r="F277" s="11"/>
       <c r="G277" s="1">
         <v>0</v>
@@ -20413,10 +20413,10 @@
       </c>
     </row>
     <row r="278" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B278" s="20">
+      <c r="B278" s="18">
         <v>9.1</v>
       </c>
-      <c r="C278" s="20"/>
+      <c r="C278" s="18"/>
       <c r="D278" s="13" t="s">
         <v>46</v>
       </c>
@@ -20433,10 +20433,10 @@
       </c>
     </row>
     <row r="279" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B279" s="20">
+      <c r="B279" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C279" s="20"/>
+      <c r="C279" s="18"/>
       <c r="D279" s="11" t="s">
         <v>7</v>
       </c>
@@ -20453,10 +20453,10 @@
       </c>
     </row>
     <row r="280" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B280" s="20">
+      <c r="B280" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C280" s="20"/>
+      <c r="C280" s="18"/>
       <c r="D280" s="11" t="s">
         <v>6</v>
       </c>
@@ -20476,10 +20476,10 @@
       <c r="B282" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C282" s="21" t="s">
+      <c r="C282" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D282" s="21"/>
+      <c r="D282" s="22"/>
       <c r="E282" s="12"/>
       <c r="F282" s="4" t="s">
         <v>3</v>
@@ -20498,10 +20498,10 @@
       <c r="B283" s="3">
         <v>1</v>
       </c>
-      <c r="C283" s="31" t="s">
+      <c r="C283" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D283" s="31"/>
+      <c r="D283" s="23"/>
       <c r="E283" s="11"/>
       <c r="F283" s="11"/>
       <c r="G283" s="1">
@@ -20518,10 +20518,10 @@
       <c r="B284" s="3">
         <v>2</v>
       </c>
-      <c r="C284" s="31" t="s">
+      <c r="C284" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D284" s="31"/>
+      <c r="D284" s="23"/>
       <c r="E284" s="11"/>
       <c r="F284" s="11"/>
       <c r="G284" s="1">
@@ -20538,10 +20538,10 @@
       <c r="B285" s="3">
         <v>3</v>
       </c>
-      <c r="C285" s="20" t="s">
+      <c r="C285" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D285" s="20"/>
+      <c r="D285" s="18"/>
       <c r="E285" s="11"/>
       <c r="F285" s="10" t="s">
         <v>49</v>
@@ -20560,10 +20560,10 @@
       <c r="B286" s="3">
         <v>4</v>
       </c>
-      <c r="C286" s="20" t="s">
+      <c r="C286" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D286" s="20"/>
+      <c r="D286" s="18"/>
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
       <c r="G286" s="1">
@@ -20580,10 +20580,10 @@
       <c r="B287" s="3">
         <v>5</v>
       </c>
-      <c r="C287" s="20" t="s">
+      <c r="C287" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D287" s="20"/>
+      <c r="D287" s="18"/>
       <c r="E287" s="11"/>
       <c r="F287" s="11"/>
       <c r="G287" s="1">
@@ -20600,10 +20600,10 @@
       <c r="B288" s="3">
         <v>6</v>
       </c>
-      <c r="C288" s="20" t="s">
+      <c r="C288" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D288" s="20"/>
+      <c r="D288" s="18"/>
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
       <c r="G288" s="1">
@@ -20620,11 +20620,11 @@
       <c r="B289" s="3">
         <v>7</v>
       </c>
-      <c r="C289" s="25" t="s">
+      <c r="C289" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D289" s="26"/>
-      <c r="E289" s="27"/>
+      <c r="D289" s="20"/>
+      <c r="E289" s="21"/>
       <c r="F289" s="11"/>
       <c r="G289" s="1">
         <v>0</v>
@@ -20637,10 +20637,10 @@
       </c>
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B290" s="20">
+      <c r="B290" s="18">
         <v>7.1</v>
       </c>
-      <c r="C290" s="20"/>
+      <c r="C290" s="18"/>
       <c r="D290" s="11" t="s">
         <v>14</v>
       </c>
@@ -20657,10 +20657,10 @@
       </c>
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B291" s="20">
+      <c r="B291" s="18">
         <v>7.2</v>
       </c>
-      <c r="C291" s="20"/>
+      <c r="C291" s="18"/>
       <c r="D291" s="11" t="s">
         <v>13</v>
       </c>
@@ -20677,10 +20677,10 @@
       </c>
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B292" s="20">
+      <c r="B292" s="18">
         <v>7.3</v>
       </c>
-      <c r="C292" s="20"/>
+      <c r="C292" s="18"/>
       <c r="D292" s="11" t="s">
         <v>12</v>
       </c>
@@ -20700,11 +20700,11 @@
       <c r="B293" s="3">
         <v>8</v>
       </c>
-      <c r="C293" s="28" t="s">
+      <c r="C293" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D293" s="29"/>
-      <c r="E293" s="30"/>
+      <c r="D293" s="16"/>
+      <c r="E293" s="17"/>
       <c r="F293" s="11"/>
       <c r="G293" s="1">
         <v>0</v>
@@ -20717,10 +20717,10 @@
       </c>
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B294" s="20">
+      <c r="B294" s="18">
         <v>8.1</v>
       </c>
-      <c r="C294" s="20"/>
+      <c r="C294" s="18"/>
       <c r="D294" s="11" t="s">
         <v>10</v>
       </c>
@@ -20737,10 +20737,10 @@
       </c>
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B295" s="20">
+      <c r="B295" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C295" s="20"/>
+      <c r="C295" s="18"/>
       <c r="D295" s="11" t="s">
         <v>9</v>
       </c>
@@ -20760,11 +20760,11 @@
       <c r="B296" s="3">
         <v>9</v>
       </c>
-      <c r="C296" s="28" t="s">
+      <c r="C296" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D296" s="29"/>
-      <c r="E296" s="30"/>
+      <c r="D296" s="16"/>
+      <c r="E296" s="17"/>
       <c r="F296" s="11"/>
       <c r="G296" s="1">
         <v>0</v>
@@ -20777,10 +20777,10 @@
       </c>
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B297" s="20">
+      <c r="B297" s="18">
         <v>9.1</v>
       </c>
-      <c r="C297" s="20"/>
+      <c r="C297" s="18"/>
       <c r="D297" s="13" t="s">
         <v>46</v>
       </c>
@@ -20797,10 +20797,10 @@
       </c>
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B298" s="20">
+      <c r="B298" s="18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C298" s="20"/>
+      <c r="C298" s="18"/>
       <c r="D298" s="11" t="s">
         <v>7</v>
       </c>
@@ -20817,10 +20817,10 @@
       </c>
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B299" s="20">
+      <c r="B299" s="18">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C299" s="20"/>
+      <c r="C299" s="18"/>
       <c r="D299" s="11" t="s">
         <v>6</v>
       </c>
@@ -20840,274 +20840,6 @@
     </row>
   </sheetData>
   <mergeCells count="292">
-    <mergeCell ref="C296:E296"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="C293:E293"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="C286:D286"/>
-    <mergeCell ref="C287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="C289:E289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="C282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C284:D284"/>
-    <mergeCell ref="C285:D285"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="C270:E270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="C274:E274"/>
-    <mergeCell ref="C265:D265"/>
-    <mergeCell ref="C266:D266"/>
-    <mergeCell ref="C267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="C269:D269"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="C264:D264"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="C255:E255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="C258:E258"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:E251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="C239:E239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="C236:E236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="C230:D230"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="C232:E232"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="C227:D227"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="C220:E220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="C213:E213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="C198:E198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C194:E194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="C182:E182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="C175:E175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="C163:E163"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C156:E156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:I3"/>
@@ -21132,6 +20864,274 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C156:E156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="C175:E175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:E194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="C198:E198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="C227:D227"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="C220:E220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="C236:E236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="C230:D230"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="C232:E232"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="C239:E239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="C255:E255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="C258:E258"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:E251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="C265:D265"/>
+    <mergeCell ref="C266:D266"/>
+    <mergeCell ref="C267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="C269:D269"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="C264:D264"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="C277:E277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="C270:E270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="C274:E274"/>
+    <mergeCell ref="C286:D286"/>
+    <mergeCell ref="C287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="C289:E289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="C282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C284:D284"/>
+    <mergeCell ref="C285:D285"/>
+    <mergeCell ref="C296:E296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="C293:E293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="B295:C295"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G13:I13">
